--- a/biology/Zoologie/Cottus_rhotheus/Cottus_rhotheus.xlsx
+++ b/biology/Zoologie/Cottus_rhotheus/Cottus_rhotheus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cottus rhotheus (Chabot de torrent[5] en français) est une espèce de poissons d'eau douce de la famille des Cottidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cottus rhotheus (Chabot de torrent en français) est une espèce de poissons d'eau douce de la famille des Cottidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cottus rhotheus se rencontre en Amérique du Nord, depuis le bassin du fleuve Fraser au Canada jusqu'à la rivière Nehalem dans l'Oregon aux États-Unis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cottus rhotheus se rencontre en Amérique du Nord, depuis le bassin du fleuve Fraser au Canada jusqu'à la rivière Nehalem dans l'Oregon aux États-Unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Pseudophoxinus evliyae est de 155 mm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Pseudophoxinus evliyae est de 155 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Smith, 1882 : Description of a new species of Uranidea (Uranidea rhothea) from Spokane River, Washington Territory. Proceedings of the United States National Museum, vol. 5, n. 286, p. 347-348[6] (texte intégral).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Smith, 1882 : Description of a new species of Uranidea (Uranidea rhothea) from Spokane River, Washington Territory. Proceedings of the United States National Museum, vol. 5, n. 286, p. 347-348 (texte intégral).</t>
         </is>
       </c>
     </row>
